--- a/data/trans_orig/Q23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Provincia-trans_orig.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,27 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>15,75</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16,66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>16,85</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17,65</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,68</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>16,41</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,21</t>
         </is>
       </c>
     </row>
@@ -644,27 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,95; 16,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>14,76; 17,13</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 17,58</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>16,25; 17,56</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 18,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14,42; 17,43</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 19,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>16,07; 16,79</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 17,33</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 16,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,61; 17,9</t>
         </is>
       </c>
     </row>
@@ -691,22 +806,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>15,41</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16,78</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>17,6</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>17,3</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13,42</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17,6</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>16,59</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>16,61</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,76</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,11</t>
         </is>
       </c>
     </row>
@@ -729,22 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>13,91; 16,59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 17,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>16,94; 18,51</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>16,69; 18,16</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11,27; 14,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 18,33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>16,32; 16,96</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>16,29; 17,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 15,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 17,54</t>
         </is>
       </c>
     </row>
@@ -771,22 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>15,48</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16,14</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>17,99</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>17,66</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19,91</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>16,73</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>17,05</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,34</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,47</t>
         </is>
       </c>
     </row>
@@ -809,22 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>14,75; 16,5</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 16,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>17,07; 19,58</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>16,93; 18,4</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 33,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 17,36</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>16,3; 17,32</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>16,68; 17,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 20,13</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16,13; 16,87</t>
         </is>
       </c>
     </row>
@@ -846,25 +1081,55 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>16,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>16,11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16,96</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>17,72</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,39</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19,03</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17,48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>16,95</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,46</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,99</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>17,19</t>
         </is>
@@ -884,27 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 16,8</t>
+          <t>16,0; 16,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>15,16; 16,93</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 17,38</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>17,17; 18,42</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>17,8; 19,37</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 21,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 16,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,04; 17,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>16,69; 17,34</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 17,6</t>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 18,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 16,67</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,89; 17,47</t>
         </is>
       </c>
     </row>
@@ -931,22 +1226,52 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>14,77</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,9</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>17,1</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>17,08</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,39</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>16,95</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>16,82</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,76</t>
         </is>
       </c>
     </row>
@@ -969,22 +1294,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>13,21; 16,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 19,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>16,36; 18,4</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>16,47; 17,89</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 18,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,02; 18,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>16,49; 17,54</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>16,34; 17,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 16,69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 18,5</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1366,52 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>16,35</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16,24</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>16,9</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>18,05</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16,31</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>16,46</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>16,99</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16,12</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16,26</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>15,47; 17,43</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 17,21</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>16,37; 17,6</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>17,07; 19,43</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 16,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 16,81</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>16,13; 16,89</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>16,46; 17,59</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 17,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 16,84</t>
         </is>
       </c>
     </row>
@@ -1091,22 +1506,52 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>15,33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16,99</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>18,06</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>17,37</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16,47</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17,95</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>17,03</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>16,81</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15,78</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,43</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>14,46; 16,06</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 17,52</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>17,4; 19,14</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>16,92; 17,95</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 18,21</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,48; 18,5</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>16,69; 17,56</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>16,54; 17,09</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,2; 16,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 17,83</t>
         </is>
       </c>
     </row>
@@ -1171,22 +1646,52 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>14,76</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16,17</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>17,06</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>17,53</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16,53</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,98</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>16,71</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>16,95</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15,07</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,35</t>
         </is>
       </c>
     </row>
@@ -1209,22 +1714,52 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>13,83; 16,45</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 16,4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>16,7; 17,52</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>17,0; 18,2</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 18,01</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 17,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>16,44; 17,08</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>16,7; 17,3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 16,31</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 16,61</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1786,52 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>15,55</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16,57</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>17,47</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>17,65</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15,95</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17,46</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>16,75</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>16,92</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,66</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1854,52 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>15,14; 16,03</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 16,8</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>17,2; 17,75</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>17,38; 17,95</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 16,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 17,69</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>16,62; 16,89</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>16,79; 17,06</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 16,1</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 17,07</t>
         </is>
       </c>
     </row>
@@ -1318,16 +1913,16 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_orig/Q23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Provincia-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,15 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según edad a la que empezó a fumar tabaco</t>
+          <t>Edad media de inicio en el consumo de tabaco/marihuana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,14 +618,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -666,52 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,66</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>17,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,15</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,89</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>15,73</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>17,21</t>
+          <t>16,64</t>
         </is>
       </c>
     </row>
@@ -724,69 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 16,62</t>
+          <t>15,83; 16,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,94</t>
+          <t>15,94; 16,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 17,13</t>
+          <t>15,23; 16,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 17,58</t>
+          <t>16,2; 17,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 17,56</t>
+          <t>16,95; 18,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,62</t>
+          <t>17,03; 18,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,43</t>
+          <t>16,1; 16,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 19,14</t>
+          <t>16,46; 17,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 16,79</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>16,48; 17,33</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>14,91; 16,93</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>16,61; 17,9</t>
+          <t>16,16; 17,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -806,52 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,41</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,78</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,6</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>16,59</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,6</t>
+          <t>16,61</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,61</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>14,76</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>17,11</t>
+          <t>16,76</t>
         </is>
       </c>
     </row>
@@ -864,69 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,8; 16,41</t>
+          <t>15,81; 16,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 16,61</t>
+          <t>15,82; 16,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,91; 16,59</t>
+          <t>16,08; 16,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 17,33</t>
+          <t>16,95; 18,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 18,51</t>
+          <t>16,76; 18,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 18,16</t>
+          <t>16,78; 17,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 14,71</t>
+          <t>16,28; 16,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,33</t>
+          <t>16,27; 17,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,96</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,29; 17,02</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>13,6; 15,9</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,8; 17,54</t>
+          <t>16,47; 17,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -946,52 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,48</t>
+          <t>17,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,14</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,99</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,91</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>17,05</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>16,34</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
+          <t>17,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 16,56</t>
+          <t>15,65; 16,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 17,2</t>
+          <t>16,27; 17,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,75; 16,5</t>
+          <t>16,54; 17,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 16,77</t>
+          <t>17,15; 19,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 19,58</t>
+          <t>16,99; 18,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 18,4</t>
+          <t>16,9; 18,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,23; 33,0</t>
+          <t>16,28; 17,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,36</t>
+          <t>16,7; 17,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 17,32</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>16,68; 17,48</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>14,91; 20,13</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>16,13; 16,87</t>
+          <t>16,85; 17,88</t>
         </is>
       </c>
     </row>
@@ -1086,52 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>19,03</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,03</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,46</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,99</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
+          <t>17,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 16,8</t>
+          <t>16,19; 16,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 16,89</t>
+          <t>15,98; 16,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 16,93</t>
+          <t>16,01; 17,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 17,38</t>
+          <t>17,18; 18,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,42</t>
+          <t>18,14; 20,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 21,07</t>
+          <t>17,34; 18,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 16,55</t>
+          <t>16,65; 17,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,94</t>
+          <t>17,01; 18,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,34</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>16,98; 18,18</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>15,29; 16,67</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 17,47</t>
+          <t>16,71; 17,68</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>17,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,1</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,08</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,39</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,58</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,82</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>15,23</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>17,76</t>
+          <t>16,83</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1125,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,35</t>
+          <t>16,34; 17,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 17,67</t>
+          <t>16,0; 17,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,21; 16,8</t>
+          <t>16,36; 17,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,25; 19,06</t>
+          <t>16,3; 18,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 18,4</t>
+          <t>16,53; 18,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 17,89</t>
+          <t>16,2; 17,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,0; 18,0</t>
+          <t>16,51; 17,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 18,48</t>
+          <t>16,33; 17,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,49; 17,54</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>16,34; 17,45</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>13,86; 16,69</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>17,27; 18,5</t>
+          <t>16,39; 17,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,52 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,35</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,24</t>
+          <t>16,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>18,05</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,05</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,31</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,46</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>16,99</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>16,12</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,26</t>
+          <t>17,45</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,9; 16,77</t>
+          <t>15,89; 16,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 17,08</t>
+          <t>15,89; 17,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,47; 17,43</t>
+          <t>16,54; 18,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,8; 17,21</t>
+          <t>16,29; 17,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 17,6</t>
+          <t>17,11; 19,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,07; 19,43</t>
+          <t>17,36; 19,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 16,0</t>
+          <t>16,15; 16,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 16,81</t>
+          <t>16,49; 17,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,89</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>16,46; 17,59</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,31; 17,05</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>15,91; 16,84</t>
+          <t>16,96; 18,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1506,52 +1302,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,33</t>
+          <t>16,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,47</t>
+          <t>17,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,95</t>
+          <t>16,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,03</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>16,81</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>15,78</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>17,43</t>
+          <t>16,69</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 16,76</t>
+          <t>16,06; 16,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,77</t>
+          <t>16,19; 16,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 16,06</t>
+          <t>15,99; 16,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,52</t>
+          <t>17,43; 19,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,4; 19,14</t>
+          <t>16,93; 17,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,95</t>
+          <t>16,77; 17,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,51; 18,21</t>
+          <t>16,65; 17,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,5</t>
+          <t>16,55; 17,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,56</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>16,54; 17,09</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>15,2; 16,6</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 17,83</t>
+          <t>16,45; 17,01</t>
         </is>
       </c>
     </row>
@@ -1646,52 +1412,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>17,53</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,53</t>
+          <t>18,18</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,98</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,71</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>16,95</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>15,07</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>16,35</t>
+          <t>17,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,97</t>
+          <t>16,17; 16,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,84</t>
+          <t>16,31; 16,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,83; 16,45</t>
+          <t>16,01; 16,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,97; 16,4</t>
+          <t>16,68; 17,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,52</t>
+          <t>17,0; 18,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,2</t>
+          <t>17,55; 18,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,23; 18,01</t>
+          <t>16,44; 17,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,44</t>
+          <t>16,71; 17,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,08</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>16,7; 17,3</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>14,24; 16,31</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>16,1; 16,61</t>
+          <t>16,8; 17,6</t>
         </is>
       </c>
     </row>
@@ -1786,17 +1522,17 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1806,32 +1542,17 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>16,92</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
+          <t>16,97</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,21; 16,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,61</t>
+          <t>16,32; 16,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,14; 16,03</t>
+          <t>16,32; 16,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,33; 16,8</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,39; 17,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,41; 17,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,36; 16,94</t>
+          <t>16,62; 16,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,69</t>
+          <t>16,8; 17,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 17,06</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>15,32; 16,1</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 17,07</t>
+          <t>16,82; 17,13</t>
         </is>
       </c>
     </row>
@@ -1912,17 +1618,17 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
